--- a/bom/electron-bom-v010.xlsx
+++ b/bom/electron-bom-v010.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="248">
   <si>
     <t>IDENTIFIER</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>M02_0.05_HEADER</t>
-  </si>
-  <si>
-    <t>M18PTH</t>
-  </si>
-  <si>
-    <t>USB-MICROB</t>
   </si>
   <si>
     <t>4020TYPE</t>
@@ -756,6 +750,30 @@
   </si>
   <si>
     <t>MODE, RESET</t>
+  </si>
+  <si>
+    <t>HOP Electronics</t>
+  </si>
+  <si>
+    <t>STK2</t>
+  </si>
+  <si>
+    <t>PKG1</t>
+  </si>
+  <si>
+    <t>PKG2</t>
+  </si>
+  <si>
+    <t>ACC1</t>
+  </si>
+  <si>
+    <t>ACC2</t>
+  </si>
+  <si>
+    <t>BAT1</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1769,9 +1787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IC973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1806,10 +1824,10 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1847,13 +1865,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>3</v>
@@ -1876,10 +1894,10 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1887,23 +1905,27 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="K5" s="19">
         <v>1</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1911,21 +1933,27 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="19">
         <v>1</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="L6" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="26" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1933,25 +1961,27 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="K7" s="19">
         <v>1</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1959,16 +1989,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K8" s="19">
         <v>1</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M8" s="41"/>
     </row>
@@ -1977,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>32</v>
@@ -1987,10 +2017,10 @@
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
       <c r="I9" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9" s="19">
         <v>14</v>
@@ -2003,7 +2033,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>37</v>
@@ -2013,10 +2043,10 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K10" s="19">
         <v>2</v>
@@ -2029,7 +2059,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>38</v>
@@ -2039,10 +2069,10 @@
       <c r="G11" s="18"/>
       <c r="H11" s="50"/>
       <c r="I11" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" s="19">
         <v>3</v>
@@ -2055,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>39</v>
@@ -2065,10 +2095,10 @@
       <c r="G12" s="18"/>
       <c r="H12" s="50"/>
       <c r="I12" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" s="19">
         <v>2</v>
@@ -2081,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>40</v>
@@ -2091,10 +2121,10 @@
       <c r="G13" s="18"/>
       <c r="H13" s="50"/>
       <c r="I13" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" s="19">
         <v>1</v>
@@ -2107,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>42</v>
@@ -2117,10 +2147,10 @@
       <c r="G14" s="18"/>
       <c r="H14" s="50"/>
       <c r="I14" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="19">
         <v>3</v>
@@ -2133,7 +2163,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>42</v>
@@ -2143,10 +2173,10 @@
       <c r="G15" s="18"/>
       <c r="H15" s="50"/>
       <c r="I15" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" s="19">
         <v>3</v>
@@ -2159,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>44</v>
@@ -2169,10 +2199,10 @@
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
       <c r="I16" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="19">
         <v>4</v>
@@ -2185,7 +2215,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>44</v>
@@ -2195,10 +2225,10 @@
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
       <c r="I17" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="19">
         <v>4</v>
@@ -2211,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>46</v>
@@ -2221,10 +2251,10 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" s="19">
         <v>2</v>
@@ -2237,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>47</v>
@@ -2247,10 +2277,10 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="19">
         <v>1</v>
@@ -2263,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>48</v>
@@ -2274,7 +2304,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="37"/>
       <c r="J20" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="19">
         <v>1</v>
@@ -2287,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>50</v>
@@ -2297,10 +2327,10 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" s="19">
         <v>2</v>
@@ -2313,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>50</v>
@@ -2323,10 +2353,10 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" s="19">
         <v>2</v>
@@ -2339,7 +2369,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>51</v>
@@ -2349,10 +2379,10 @@
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
       <c r="I23" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23" s="19">
         <v>1</v>
@@ -2365,7 +2395,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>52</v>
@@ -2375,10 +2405,10 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24" s="19">
         <v>4</v>
@@ -2391,7 +2421,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>55</v>
@@ -2401,10 +2431,10 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="19">
         <v>1</v>
@@ -2417,29 +2447,29 @@
         <v>29</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K26" s="19">
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
@@ -2447,11 +2477,9 @@
         <v>29</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -2460,13 +2488,13 @@
         <v>56</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27" s="19">
         <v>1</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="41"/>
     </row>
@@ -2475,26 +2503,24 @@
         <v>29</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>57</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K28" s="19">
         <v>2</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="41"/>
     </row>
@@ -2503,29 +2529,27 @@
         <v>29</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>58</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" s="19">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
@@ -2533,7 +2557,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2541,19 +2565,19 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K30" s="19">
         <v>1</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
@@ -2561,7 +2585,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -2569,19 +2593,19 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K31" s="19">
         <v>1</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
@@ -2589,31 +2613,31 @@
         <v>27</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K32" s="19">
         <v>1</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
@@ -2621,31 +2645,31 @@
         <v>27</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33" s="19">
         <v>1</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="14" x14ac:dyDescent="0.15">
@@ -2653,99 +2677,95 @@
         <v>28</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K34" s="19">
         <v>1</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="27">
-        <v>1</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" s="26" t="s">
-        <v>108</v>
+      <c r="B35" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="19">
+        <v>2</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>239</v>
+      <c r="B36" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="K36" s="19">
         <v>1</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" s="55" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" s="55" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B37" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -2753,27 +2773,27 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="32" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K37" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>148</v>
+        <v>167</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:13" s="55" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -2781,27 +2801,27 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="32" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K38" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="39" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2809,27 +2829,27 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="32" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K39" s="19">
         <v>1</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>186</v>
+        <v>147</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -2837,24 +2857,24 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="32" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K40" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>119</v>
@@ -2865,161 +2885,165 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="32" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K41" s="19">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="32" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="K42" s="19">
         <v>1</v>
       </c>
-      <c r="L42" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="L42" s="41"/>
+      <c r="M42" s="40"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B43" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="32" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="K43" s="19">
         <v>1</v>
       </c>
-      <c r="L43" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>154</v>
-      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" s="19">
+      <c r="B44" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K44" s="27">
         <v>1</v>
       </c>
-      <c r="L44" s="41"/>
-      <c r="M44" s="40"/>
+      <c r="L44" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>72</v>
+      <c r="B45" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>237</v>
       </c>
       <c r="K45" s="19">
         <v>1</v>
       </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
+      <c r="L45" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B46" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K46" s="19">
         <v>1</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="39" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B47" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -3027,25 +3051,23 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="K47" s="19">
         <v>1</v>
       </c>
-      <c r="L47" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B48" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -3053,21 +3075,23 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="J48" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>243</v>
+      </c>
       <c r="K48" s="19">
         <v>1</v>
       </c>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.15">
       <c r="B49" s="18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -3075,89 +3099,93 @@
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="J49" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>238</v>
+      </c>
       <c r="K49" s="19">
         <v>1</v>
       </c>
-      <c r="L49" s="18"/>
+      <c r="L49" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="2:13" ht="26" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" s="18" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>240</v>
+        <v>196</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="K50" s="19">
-        <v>1</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="M50" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="L50" s="18"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="50"/>
       <c r="I51" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="K51" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="18"/>
-      <c r="M51" s="21"/>
+      <c r="M51" s="18"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="50"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>67</v>
+        <v>196</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="K52" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
@@ -3167,23 +3195,23 @@
         <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="K53" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
@@ -3193,33 +3221,33 @@
         <v>24</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E54" s="18"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="50"/>
       <c r="I54" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K54" s="19">
         <v>1</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B55" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>41</v>
@@ -3229,39 +3257,39 @@
       <c r="G55" s="18"/>
       <c r="H55" s="50"/>
       <c r="I55" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>69</v>
+        <v>196</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="K55" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" s="18"/>
-      <c r="M55" s="21"/>
+      <c r="M55" s="18"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B56" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="50"/>
       <c r="I56" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>90</v>
+        <v>196</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="K56" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
@@ -3271,23 +3299,23 @@
         <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="50"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>71</v>
+        <v>196</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="K57" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
@@ -3297,23 +3325,23 @@
         <v>24</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E58" s="18"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>84</v>
+        <v>196</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="K58" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
@@ -3323,23 +3351,23 @@
         <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>75</v>
+        <v>196</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="K59" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -3349,87 +3377,91 @@
         <v>24</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>96</v>
+        <v>196</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="K60" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B61" s="18" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="32" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="K61" s="19">
         <v>1</v>
       </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="39" x14ac:dyDescent="0.15">
       <c r="B62" s="18" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>211</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="32" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="K62" s="19">
         <v>1</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="M62" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B63" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="62"/>
@@ -3437,25 +3469,25 @@
       <c r="G63" s="62"/>
       <c r="H63" s="62"/>
       <c r="I63" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="K63" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="J63" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="K63" s="66" t="s">
-        <v>218</v>
-      </c>
       <c r="L63" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M63" s="62"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B64" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
@@ -3463,16 +3495,16 @@
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="J64" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="K64" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="L64" s="60" t="s">
         <v>220</v>
-      </c>
-      <c r="J64" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="K64" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="L64" s="60" t="s">
-        <v>222</v>
       </c>
       <c r="M64" s="62"/>
     </row>
@@ -3482,29 +3514,29 @@
         <v>30</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K65" s="19">
         <v>2</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N65" s="81"/>
       <c r="O65" s="58"/>
@@ -16307,9 +16339,9 @@
       <c r="M973" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="B5:M66">
-    <sortCondition ref="B5:B66"/>
-    <sortCondition ref="D5:D66"/>
+  <sortState ref="B5:M65">
+    <sortCondition ref="B5:B65"/>
+    <sortCondition ref="D5:D65"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16618,7 +16650,7 @@
       <c r="D10" s="69"/>
       <c r="E10" s="10"/>
       <c r="F10" s="70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="71"/>
       <c r="H10" s="72"/>
